--- a/resources/testdata/ItemModuleBCT.xlsx
+++ b/resources/testdata/ItemModuleBCT.xlsx
@@ -10,13 +10,16 @@
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="addService" sheetId="2" r:id="rId2"/>
     <sheet name="importService" sheetId="3" r:id="rId3"/>
+    <sheet name="deleteServiceWithItem" sheetId="4" r:id="rId4"/>
+    <sheet name="deleteServiceWithoutItem" sheetId="6" r:id="rId5"/>
+    <sheet name="AddResource" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -84,9 +87,6 @@
     <t>accessInformation</t>
   </si>
   <si>
-    <t>xyx</t>
-  </si>
-  <si>
     <t>This is my access information &amp; I want to test it's value 12 (username) (password)</t>
   </si>
   <si>
@@ -214,6 +214,33 @@
   </si>
   <si>
     <t>Adding a service</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>deleteServiceWithItem</t>
+  </si>
+  <si>
+    <t>Delete service With Item</t>
+  </si>
+  <si>
+    <t>Automation Service to Delete</t>
+  </si>
+  <si>
+    <t>deleteServiceWithoutItem</t>
+  </si>
+  <si>
+    <t>Delete service Without Item</t>
+  </si>
+  <si>
+    <t>Manual's Aut &amp; service 576431</t>
+  </si>
+  <si>
+    <t>AddResource</t>
+  </si>
+  <si>
+    <t>Adding a resource to a service</t>
   </si>
 </sst>
 </file>
@@ -562,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,10 +615,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -599,12 +626,45 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -617,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +695,20 @@
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" customWidth="1"/>
     <col min="24" max="24" width="16.85546875" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" customWidth="1"/>
+    <col min="29" max="29" width="7.140625" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -646,10 +719,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -676,70 +749,70 @@
         <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AE1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -750,10 +823,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -771,76 +844,76 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -852,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,19 +953,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -907,76 +980,76 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>21</v>
@@ -990,94 +1063,218 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
         <v>3</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
       </c>
       <c r="AC2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s">
         <v>3</v>
       </c>
       <c r="AE2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI2" t="s">
         <v>3</v>
       </c>
       <c r="AJ2" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testdata/ItemModuleBCT.xlsx
+++ b/resources/testdata/ItemModuleBCT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -241,6 +241,129 @@
   </si>
   <si>
     <t>Adding a resource to a service</t>
+  </si>
+  <si>
+    <t>Do Not Delete</t>
+  </si>
+  <si>
+    <t>resourceName</t>
+  </si>
+  <si>
+    <t>Automation's &amp; resource</t>
+  </si>
+  <si>
+    <t>resourceID</t>
+  </si>
+  <si>
+    <t>Automation's &amp; ID</t>
+  </si>
+  <si>
+    <t>provisioningInfo</t>
+  </si>
+  <si>
+    <t>askInFstOrdrOnly</t>
+  </si>
+  <si>
+    <t>askInEveryOrdr</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>editable</t>
+  </si>
+  <si>
+    <t>resourceType</t>
+  </si>
+  <si>
+    <t>Order only</t>
+  </si>
+  <si>
+    <t>inputType</t>
+  </si>
+  <si>
+    <t>Free text</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
+  </si>
+  <si>
+    <t>This is my default Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique  </t>
+  </si>
+  <si>
+    <t>orderItem</t>
+  </si>
+  <si>
+    <t>payPerUseTrue</t>
+  </si>
+  <si>
+    <t>payPerUseFalse</t>
+  </si>
+  <si>
+    <t>reportedValPer</t>
+  </si>
+  <si>
+    <t>defaultQuantity</t>
+  </si>
+  <si>
+    <t>resouceCat</t>
+  </si>
+  <si>
+    <t>mailbox</t>
+  </si>
+  <si>
+    <t>availableForUser</t>
+  </si>
+  <si>
+    <t>reservationUnit</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provsysunit  </t>
+  </si>
+  <si>
+    <t>resCovFactor</t>
+  </si>
+  <si>
+    <t>resCovOperation</t>
+  </si>
+  <si>
+    <t>Multiply (X)</t>
+  </si>
+  <si>
+    <t>ppuUnit</t>
+  </si>
+  <si>
+    <t>ppuProvSysUnit</t>
+  </si>
+  <si>
+    <t>ppuConvFactor</t>
+  </si>
+  <si>
+    <t>ppuConvOperation</t>
+  </si>
+  <si>
+    <t>meteringRule</t>
+  </si>
+  <si>
+    <t>Minimum of daily usage</t>
+  </si>
+  <si>
+    <t>ppuReportingMechanishm</t>
+  </si>
+  <si>
+    <t>EAS calculates PPU</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
   </si>
 </sst>
 </file>
@@ -282,9 +405,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
@@ -1242,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,9 +1377,24 @@
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" customWidth="1"/>
+    <col min="31" max="31" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1265,8 +1404,92 @@
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1274,10 +1497,95 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2">
+        <v>20.12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/testdata/ItemModuleBCT.xlsx
+++ b/resources/testdata/ItemModuleBCT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>

--- a/resources/testdata/ItemModuleBCT.xlsx
+++ b/resources/testdata/ItemModuleBCT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="deleteServiceWithItem" sheetId="4" r:id="rId4"/>
     <sheet name="deleteServiceWithoutItem" sheetId="6" r:id="rId5"/>
     <sheet name="AddResource" sheetId="9" r:id="rId6"/>
+    <sheet name="addBaseItem" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="158">
   <si>
     <t>TCID</t>
   </si>
@@ -364,6 +365,135 @@
   </si>
   <si>
     <t>70.0</t>
+  </si>
+  <si>
+    <t>addBaseItem</t>
+  </si>
+  <si>
+    <t>Adding a base item from a  service</t>
+  </si>
+  <si>
+    <t>Do Not Delete - Default</t>
+  </si>
+  <si>
+    <t>itemCode</t>
+  </si>
+  <si>
+    <t>Base &amp; type's item</t>
+  </si>
+  <si>
+    <t>itemName</t>
+  </si>
+  <si>
+    <t>uniqueIdentifier</t>
+  </si>
+  <si>
+    <t>806e2b4e-f523-4dd1-8512</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>This is a &amp; base type's of Item</t>
+  </si>
+  <si>
+    <t>custom1</t>
+  </si>
+  <si>
+    <t>custom2</t>
+  </si>
+  <si>
+    <t>custom3</t>
+  </si>
+  <si>
+    <t>custom4</t>
+  </si>
+  <si>
+    <t>custom5</t>
+  </si>
+  <si>
+    <t>custom6</t>
+  </si>
+  <si>
+    <t>custom7</t>
+  </si>
+  <si>
+    <t>custom8</t>
+  </si>
+  <si>
+    <t>custom9</t>
+  </si>
+  <si>
+    <t>custom10</t>
+  </si>
+  <si>
+    <t>custom11</t>
+  </si>
+  <si>
+    <t>custom12</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field1</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field2</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field3</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field4</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field6</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field7</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field8</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field9</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field10</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field11</t>
+  </si>
+  <si>
+    <t>This is  &amp; the value for's  Custom field12</t>
+  </si>
+  <si>
+    <t>billOfMat</t>
+  </si>
+  <si>
+    <t>primaryvenCost</t>
+  </si>
+  <si>
+    <t>Resource one</t>
+  </si>
+  <si>
+    <t>resourceRef</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>Reserved (Manual)</t>
+  </si>
+  <si>
+    <t>reqProvInfos</t>
+  </si>
+  <si>
+    <t>Provisioning Info 1;Provisioning Info 3</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Base &amp; type's</t>
   </si>
 </sst>
 </file>
@@ -713,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +919,17 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1368,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,4 +1729,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1"/>
+    <col min="20" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/resources/testdata/ItemModuleBCT.xlsx
+++ b/resources/testdata/ItemModuleBCT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>Delete service Without Item</t>
   </si>
   <si>
-    <t>Manual's Aut &amp; service 576431</t>
-  </si>
-  <si>
     <t>AddResource</t>
   </si>
   <si>
@@ -494,6 +491,9 @@
   </si>
   <si>
     <t>Base &amp; type's</t>
+  </si>
+  <si>
+    <t>Service To Delete</t>
   </si>
 </sst>
 </file>
@@ -913,10 +913,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,13 +1469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1546,88 +1546,88 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -1638,13 +1638,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1665,13 +1665,13 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -1683,46 +1683,46 @@
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S2">
         <v>20.12</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U2" t="b">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,9 +1751,9 @@
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
     <col min="20" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="5" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="28.42578125" customWidth="1"/>
+    <col min="23" max="23" width="30.42578125" customWidth="1"/>
+    <col min="24" max="24" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -1767,67 +1767,67 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -1838,67 +1838,67 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>138</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>139</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>140</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>141</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>142</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>143</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>145</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>146</v>
       </c>
-      <c r="S2" t="s">
-        <v>147</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testdata/ItemModuleBCT.xlsx
+++ b/resources/testdata/ItemModuleBCT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
